--- a/SumHoursUsersJoiningSprints.xlsx
+++ b/SumHoursUsersJoiningSprints.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>728.75</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1102</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1953.25</v>
+        <v>867.5</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1720.15</v>
+        <v>811.25</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2107.17</v>
+        <v>877.25</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1680.65</v>
+        <v>789.25</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1896.22</v>
+        <v>869.5</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>677.33</v>
+        <v>882.75</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>741.83</v>
+        <v>704.25</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1277.24</v>
+        <v>593.25</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1357.67</v>
+        <v>759.75</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1878.25</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1622.25</v>
+        <v>720.25</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1039</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1484.75</v>
+        <v>821.5</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1312</v>
+        <v>752.5</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1239</v>
+        <v>632.25</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1637.25</v>
+        <v>642.5</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>592.87</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1048.5</v>
+        <v>673.25</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1064.75</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>850.92</v>
+        <v>766.75</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>797.83</v>
+        <v>851.25</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>836.5</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1067.25</v>
+        <v>709.75</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1197.5</v>
+        <v>663.5</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1562.75</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
